--- a/3-course-6-semester/econometrics/task-12/task-12.xlsx
+++ b/3-course-6-semester/econometrics/task-12/task-12.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F67B96-4DFC-41E7-A35D-D036BA1D4930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535566CA-DC07-43C5-96C5-A68397289428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19605" windowHeight="11145" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="1"/>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист3!$C$50</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="179021" iterate="1" iterateCount="1" iterateDelta="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="82">
   <si>
     <t>t</t>
   </si>
@@ -216,12 +218,78 @@
   <si>
     <t>Критерий Дарбина-Уотсона</t>
   </si>
+  <si>
+    <t>Автокорреляция в остатках</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>x_t</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>x_t-1</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>y*</t>
+  </si>
+  <si>
+    <t>x*</t>
+  </si>
+  <si>
+    <t>Предсказанное y*</t>
+  </si>
+  <si>
+    <t>x_t-2</t>
+  </si>
+  <si>
+    <t>x_t-3</t>
+  </si>
+  <si>
+    <t>Переменная X 1</t>
+  </si>
+  <si>
+    <t>Переменная X 2</t>
+  </si>
+  <si>
+    <t>Переменная X 3</t>
+  </si>
+  <si>
+    <t>Переменная X 4</t>
+  </si>
+  <si>
+    <t>Предсказанное Y</t>
+  </si>
+  <si>
+    <t>z_0</t>
+  </si>
+  <si>
+    <t>z_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +320,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -740,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,16 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -880,6 +957,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1362,14 +1464,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1384,8 +1486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="13782675"/>
-          <a:ext cx="4467226" cy="504825"/>
+          <a:off x="2019300" y="13782674"/>
+          <a:ext cx="4981575" cy="704851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,7 +1527,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" baseline="0"/>
-            <a:t> первого порядка составила 0,57077581, что говорит об скорее отсутствии линейного тренда.</a:t>
+            <a:t> первого порядка составила </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" i="1" baseline="0"/>
+            <a:t>0,57077581</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" baseline="0"/>
+            <a:t>, что говорит об скорее отсутствии линейного тренда.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" baseline="0"/>
+            <a:t>Есть меняющаяся тенденция.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300"/>
         </a:p>
@@ -1592,7 +1710,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" i="0" u="none" baseline="0"/>
-            <a:t>Ежегодно продажи легковых автомобилей в стране в среднем возрастали с ускорением 0,0391071*2 = 0,0782142.</a:t>
+            <a:t>Ежегодно продажи легковых автомобилей в стране в среднем возрастали с ускорением 0,0391071*2 = 0,0782142 млн. штук.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1710,7 +1828,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1300" baseline="0"/>
-            <a:t> = 8: dL = 0.76, dU = 1.33</a:t>
+            <a:t> = 8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0"/>
+            <a:t>k = 2: dL = 0.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" baseline="0"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0"/>
+            <a:t>6, dU = 1.78</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1726,6 +1860,595 @@
             <a:t> что фактическое значение больше верхней границы и можно утверждать об отсутствии автокорреляции в остатках.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C1F884-F6C8-4FDE-A9E4-E0D4B58F5B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14306550" y="18916651"/>
+          <a:ext cx="3457575" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Нет автокорреляции в остатках,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> следовательно нельзя сделать прогноз !!!!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6713EC7B-981A-4665-8216-30C8236679DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="771525"/>
+          <a:ext cx="2333625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Задача</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>пример</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> 4 стр. 191)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="0" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0FBBE7-27AC-4B4D-BB89-614E46604DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="85725"/>
+          <a:ext cx="2333625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Задача</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>пример</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> стр. 19</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="0" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BE4ED3-9D2A-4F65-B99F-4AB009DE59FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="9991726"/>
+          <a:ext cx="2152650" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+            <a:t>y = 1,936701 + 0,781497 x</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="0" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F83A70-D382-4D89-B760-99CD92921FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="16011525"/>
+          <a:ext cx="4438650" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0"/>
+            <a:t>Следовательно, сравнив с таблицей получаем что у нас есть положительная автокорреляция в остатках</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2172E232-F7EB-45CF-94CE-0E7F55CDCE36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14878050" y="12115800"/>
+          <a:ext cx="2371725" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+            <a:t>y* = 0,995858 + 0,756191 x*</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="0" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC4BF9A-C359-477E-A763-1D863177A5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782175" y="295275"/>
+          <a:ext cx="2333625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Задача</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>пример</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> стр. 19</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="0" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1997,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2810,7 @@
         <v>10.7</v>
       </c>
       <c r="E4" s="25">
-        <f>ABS(D3-D4)</f>
+        <f t="shared" ref="E4:E10" si="0">ABS(D3-D4)</f>
         <v>0.5</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -2097,14 +2820,14 @@
         <v>4</v>
       </c>
       <c r="H4" s="9">
-        <f>D4/D3</f>
+        <f t="shared" ref="H4:H10" si="1">D4/D3</f>
         <v>1.0490196078431373</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="43">
-        <f t="shared" ref="J4:J10" si="0">(B4-$B$12)^2</f>
+        <f t="shared" ref="J4:J8" si="2">(B4-$B$12)^2</f>
         <v>6.25</v>
       </c>
     </row>
@@ -2113,33 +2836,33 @@
         <v>3</v>
       </c>
       <c r="C5" s="17">
-        <f t="shared" ref="C5:C11" si="1">B5^2</f>
+        <f t="shared" ref="C5:C11" si="3">B5^2</f>
         <v>9</v>
       </c>
       <c r="D5" s="7">
         <v>11.7</v>
       </c>
       <c r="E5" s="25">
-        <f>ABS(D4-D5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="9">
-        <f>ABS(E4-E5)</f>
+        <f t="shared" ref="F5:F10" si="4">ABS(E4-E5)</f>
         <v>0.5</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="9">
-        <f>D5/D4</f>
+        <f t="shared" si="1"/>
         <v>1.0934579439252337</v>
       </c>
       <c r="I5" s="39">
-        <f>H5/H4</f>
+        <f t="shared" ref="I5:I10" si="5">H5/H4</f>
         <v>1.0423617783212507</v>
       </c>
       <c r="J5" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
@@ -2148,18 +2871,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D6" s="7">
         <v>13.1</v>
       </c>
       <c r="E6" s="25">
-        <f>ABS(D5-D6)</f>
+        <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="F6" s="9">
-        <f>ABS(E5-E6)</f>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="G6" s="9">
@@ -2167,15 +2890,15 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H6" s="9">
-        <f>D6/D5</f>
+        <f t="shared" si="1"/>
         <v>1.1196581196581197</v>
       </c>
       <c r="I6" s="39">
-        <f>H6/H5</f>
+        <f t="shared" si="5"/>
         <v>1.023960844473665</v>
       </c>
       <c r="J6" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2184,18 +2907,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D7" s="7">
         <v>14.9</v>
       </c>
       <c r="E7" s="25">
-        <f>ABS(D6-D7)</f>
+        <f t="shared" si="0"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="F7" s="9">
-        <f>ABS(E6-E7)</f>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="G7" s="9">
@@ -2203,15 +2926,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>D7/D6</f>
+        <f t="shared" si="1"/>
         <v>1.1374045801526718</v>
       </c>
       <c r="I7" s="39">
-        <f>H7/H6</f>
+        <f t="shared" si="5"/>
         <v>1.0158498921974244</v>
       </c>
       <c r="J7" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2220,18 +2943,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="D8" s="7">
         <v>17.2</v>
       </c>
       <c r="E8" s="25">
-        <f>ABS(D7-D8)</f>
+        <f t="shared" si="0"/>
         <v>2.2999999999999989</v>
       </c>
       <c r="F8" s="9">
-        <f>ABS(E7-E8)</f>
+        <f t="shared" si="4"/>
         <v>0.49999999999999822</v>
       </c>
       <c r="G8" s="9">
@@ -2239,15 +2962,15 @@
         <v>9.9999999999997868E-2</v>
       </c>
       <c r="H8" s="9">
-        <f>D8/D7</f>
+        <f t="shared" si="1"/>
         <v>1.1543624161073824</v>
       </c>
       <c r="I8" s="39">
-        <f>H8/H7</f>
+        <f t="shared" si="5"/>
         <v>1.0149092383225979</v>
       </c>
       <c r="J8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
@@ -2256,18 +2979,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="D9" s="7">
         <v>20</v>
       </c>
       <c r="E9" s="25">
-        <f>ABS(D8-D9)</f>
+        <f t="shared" si="0"/>
         <v>2.8000000000000007</v>
       </c>
       <c r="F9" s="9">
-        <f>ABS(E8-E9)</f>
+        <f t="shared" si="4"/>
         <v>0.50000000000000178</v>
       </c>
       <c r="G9" s="9">
@@ -2275,11 +2998,11 @@
         <v>3.5527136788005009E-15</v>
       </c>
       <c r="H9" s="9">
-        <f>D9/D8</f>
+        <f t="shared" si="1"/>
         <v>1.1627906976744187</v>
       </c>
       <c r="I9" s="39">
-        <f>H9/H8</f>
+        <f t="shared" si="5"/>
         <v>1.0073012439156301</v>
       </c>
       <c r="J9" s="43">
@@ -2292,18 +3015,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D10" s="7">
         <v>23.2</v>
       </c>
       <c r="E10" s="26">
-        <f>ABS(D9-D10)</f>
+        <f t="shared" si="0"/>
         <v>3.1999999999999993</v>
       </c>
       <c r="F10" s="20">
-        <f>ABS(E9-E10)</f>
+        <f t="shared" si="4"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="G10" s="20">
@@ -2311,11 +3034,11 @@
         <v>0.1000000000000032</v>
       </c>
       <c r="H10" s="20">
-        <f>D10/D9</f>
+        <f t="shared" si="1"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="I10" s="40">
-        <f>H10/H9</f>
+        <f t="shared" si="5"/>
         <v>0.99759999999999982</v>
       </c>
       <c r="J10" s="46">
@@ -2328,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -2340,7 +3063,7 @@
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="62">
         <f>AVERAGE(B3:B10)</f>
         <v>4.5</v>
       </c>
@@ -2808,11 +3531,11 @@
         <v>2</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:E63" si="2">C58^2</f>
+        <f t="shared" ref="D58:D63" si="6">C58^2</f>
         <v>4</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" ref="E58:E64" si="3">(C58-$C$66)^2</f>
+        <f t="shared" ref="E58:E64" si="7">(C58-$C$66)^2</f>
         <v>6.25</v>
       </c>
       <c r="F58" s="2">
@@ -2831,11 +3554,11 @@
         <v>3</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="F59" s="2">
@@ -2845,7 +3568,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H59" s="41">
-        <f t="shared" ref="H59:H64" si="4">G58</f>
+        <f t="shared" ref="H59:H64" si="8">G58</f>
         <v>1.55</v>
       </c>
     </row>
@@ -2854,11 +3577,11 @@
         <v>4</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="F60" s="2">
@@ -2868,7 +3591,7 @@
         <v>1.03</v>
       </c>
       <c r="H60" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -2877,11 +3600,11 @@
         <v>5</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="F61" s="2">
@@ -2891,7 +3614,7 @@
         <v>1.02</v>
       </c>
       <c r="H61" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.03</v>
       </c>
     </row>
@@ -2900,11 +3623,11 @@
         <v>6</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="F62" s="2">
@@ -2914,7 +3637,7 @@
         <v>0.98</v>
       </c>
       <c r="H62" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.02</v>
       </c>
     </row>
@@ -2923,11 +3646,11 @@
         <v>7</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
       <c r="F63" s="2">
@@ -2937,7 +3660,7 @@
         <v>1.25</v>
       </c>
       <c r="H63" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.98</v>
       </c>
     </row>
@@ -2950,7 +3673,7 @@
         <v>64</v>
       </c>
       <c r="E64" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.25</v>
       </c>
       <c r="F64" s="21">
@@ -2960,7 +3683,7 @@
         <v>1.4</v>
       </c>
       <c r="H64" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
     </row>
@@ -2975,12 +3698,12 @@
       <c r="E65" s="56">
         <v>2005</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="63" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="62" t="s">
         <v>44</v>
       </c>
       <c r="C66">
@@ -2990,12 +3713,12 @@
     </row>
     <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="60">
+      <c r="D68" s="65"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="58">
         <f>CORREL(G58:G64,H58:H64)</f>
         <v>0.57077578083096558</v>
       </c>
@@ -3240,13 +3963,23 @@
         <v>6.0839528194813183E-2</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O98" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="65"/>
+      <c r="R98" s="61">
+        <f>4-M100</f>
+        <v>1.3110775128472056</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="32" t="s">
         <v>35</v>
       </c>
@@ -3266,7 +3999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="30">
         <v>1</v>
       </c>
@@ -3286,17 +4019,26 @@
         <f>E100^2</f>
         <v>1.2750173611111136E-2</v>
       </c>
-      <c r="J100" s="58" t="s">
+      <c r="J100" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="64">
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="61">
         <f>G108/H108</f>
         <v>2.6889224871527944</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O100" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="65"/>
+      <c r="R100" s="61">
+        <f>1-M100/2</f>
+        <v>-0.34446124357639718</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C101" s="30">
         <v>2</v>
       </c>
@@ -3319,7 +4061,7 @@
         <v>3.4644731434240225E-2</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C102" s="30">
         <v>3</v>
       </c>
@@ -3330,19 +4072,19 @@
         <v>-1.3035714285714706E-2</v>
       </c>
       <c r="F102" s="30">
-        <f t="shared" ref="F102:G106" si="5">E101</f>
+        <f t="shared" ref="F102:F106" si="9">E101</f>
         <v>0.18613095238095201</v>
       </c>
       <c r="G102" s="30">
-        <f t="shared" ref="G102:H106" si="6">(E102-F102)^2</f>
+        <f t="shared" ref="G102:G106" si="10">(E102-F102)^2</f>
         <v>3.9667361111111132E-2</v>
       </c>
       <c r="H102" s="30">
-        <f t="shared" ref="H102:H106" si="7">E102^2</f>
+        <f t="shared" ref="H102:H106" si="11">E102^2</f>
         <v>1.6992984693878647E-4</v>
       </c>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C103" s="30">
         <v>4</v>
       </c>
@@ -3353,19 +4095,19 @@
         <v>-3.041666666666698E-2</v>
       </c>
       <c r="F103" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.3035714285714706E-2</v>
       </c>
       <c r="G103" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.0209750566893053E-4</v>
       </c>
       <c r="H103" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.2517361111113018E-4</v>
       </c>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C104" s="30">
         <v>5</v>
       </c>
@@ -3376,19 +4118,19 @@
         <v>-6.0119047619053845E-3</v>
       </c>
       <c r="F104" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.041666666666698E-2</v>
       </c>
       <c r="G104" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.9559240362810288E-4</v>
       </c>
       <c r="H104" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.614299886622064E-5</v>
       </c>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C105" s="30">
         <v>6</v>
       </c>
@@ -3399,19 +4141,19 @@
         <v>-8.9821428571428941E-2</v>
       </c>
       <c r="F105" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.0119047619053845E-3</v>
       </c>
       <c r="G105" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.0240362811790956E-3</v>
       </c>
       <c r="H105" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.0678890306123113E-3</v>
       </c>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C106" s="30">
         <v>7</v>
       </c>
@@ -3422,19 +4164,19 @@
         <v>5.8154761904761543E-2</v>
       </c>
       <c r="F106" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-8.9821428571428941E-2</v>
       </c>
       <c r="G106" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1896952947845806E-2</v>
       </c>
       <c r="H106" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.3819763321995045E-3</v>
       </c>
     </row>
-    <row r="107" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="31">
         <v>8</v>
       </c>
@@ -3457,20 +4199,20 @@
         <v>6.2673611111099063E-5</v>
       </c>
     </row>
-    <row r="108" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F108" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G108" s="63">
+      <c r="G108" s="60">
         <f>SUM(G101:G107)</f>
         <v>0.16143938492063473</v>
       </c>
-      <c r="H108" s="62">
+      <c r="H108" s="59">
         <f>SUM(H100:H107)</f>
         <v>6.0038690476190419E-2</v>
       </c>
     </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C112" s="34" t="s">
         <v>38</v>
       </c>
@@ -3561,11 +4303,4221 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C68:E68"/>
     <mergeCell ref="J100:L100"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="O98:Q98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276C7C2D-9E38-48C9-888E-EB180CA6FB2C}">
+  <dimension ref="B5:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <f>2.5+0.03*B19</f>
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C21" si="0">2.5+0.03*B20</f>
+        <v>3.6399999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <f>C19+C6</f>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <f>C20+C7</f>
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <f>C21+C8</f>
+        <v>3.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89732A3-99EA-4A34-979F-43EECF7564DA}">
+  <dimension ref="B4:AD98"/>
+  <sheetViews>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <f>C5*SQRT(1-$N$90^2)</f>
+        <v>7.6587533116057314</v>
+      </c>
+      <c r="H5" s="2">
+        <f>D5*SQRT(1-$N$90^2)</f>
+        <v>6.8928779804451583</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C5</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D5</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <f>C6-$N$90*E6</f>
+        <v>5.5701090435398335</v>
+      </c>
+      <c r="H6" s="2">
+        <f>D6-$N$90*F6</f>
+        <v>4.21309813918585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E32" si="0">C6</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D6</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:G32" si="1">C7-$N$90*E7</f>
+        <v>3.2841308522477997</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H32" si="2">D7-$N$90*F7</f>
+        <v>2.5701090435398335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <f>D7</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9271199478938161</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>5.21309813918585</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D8</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5701090435398335</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9271199478938161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D9</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9271199478938161</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5701090435398335</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D10</f>
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6411417566017832</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2841308522477997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D11</f>
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3551635653097502</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.6411417566017832</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D12</f>
+        <v>14</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.71217446966373288</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9981526609557658</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <f>D13</f>
+        <v>14</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9271199478938161</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9981526609557658</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D14</f>
+        <v>17</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9271199478938161</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0691853740177155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D15</f>
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5701090435398335</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.4261962783716999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D16</f>
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>7.9271199478938161</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4261962783716999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D17</f>
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3551635653097502</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>8.140218087079667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F19" s="2">
+        <f>D18</f>
+        <v>21</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>12.35516356530975</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>10.49722899143365</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D19</f>
+        <v>24</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8542398957876323</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>10.568261704495599</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D20</f>
+        <v>26</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4972289914336496</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2822835132035664</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D21</f>
+        <v>24</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>9.4972289914336496</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5682617044955993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
+        <f>D22</f>
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2112508001416167</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>9.925272608849582</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D23</f>
+        <v>26</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5682617044955993</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>11.282283513203566</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D24</f>
+        <v>28</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5682617044955993</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>12.996305321911532</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D25</f>
+        <v>31</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>9.925272608849582</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>11.067338034973481</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F27" s="2">
+        <f>D26</f>
+        <v>31</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>8.2822835132035664</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0673380349734813</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F28" s="2">
+        <f>D27</f>
+        <v>26</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>6.925272608849582</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>10.282283513203566</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F29" s="2">
+        <f>D28</f>
+        <v>27</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>12.211250800141617</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>14.639294417557551</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F30" s="2">
+        <f>D29</f>
+        <v>32</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>10.639294417557551</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="2"/>
+        <v>12.424348939327466</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F31" s="2">
+        <f>D30</f>
+        <v>33</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>10.996305321911532</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="2"/>
+        <v>12.78135984368145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2">
+        <v>33</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F32" s="2">
+        <f>D31</f>
+        <v>34</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>12.353316226265516</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="2"/>
+        <v>11.138370748035431</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="V44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="30">
+        <v>0.93604362924263973</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="30">
+        <v>0.87617767584573236</v>
+      </c>
+      <c r="V46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="W46" s="33"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="30">
+        <v>0.87141527876287594</v>
+      </c>
+      <c r="V47" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="W47" s="30">
+        <v>0.78451549711301505</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="30">
+        <v>2.4966572530122519</v>
+      </c>
+      <c r="V48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="W48" s="30">
+        <v>0.6154645652104811</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="31">
+        <v>28</v>
+      </c>
+      <c r="V49" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="W49" s="30">
+        <v>0.60067474079549954</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V50" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="W50" s="30">
+        <v>1.9534224800421882</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="V51" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W51" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="30">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30">
+        <v>1146.7914094426571</v>
+      </c>
+      <c r="E53" s="30">
+        <v>1146.7914094426571</v>
+      </c>
+      <c r="F53" s="30">
+        <v>183.978290890479</v>
+      </c>
+      <c r="G53" s="30">
+        <v>2.649730696042748E-13</v>
+      </c>
+      <c r="V53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B54" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="30">
+        <v>26</v>
+      </c>
+      <c r="D54" s="30">
+        <v>162.06573341448575</v>
+      </c>
+      <c r="E54" s="30">
+        <v>6.2332974390186831</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="X54" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y54" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z54" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA54" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="31">
+        <v>27</v>
+      </c>
+      <c r="D55" s="31">
+        <v>1308.8571428571429</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="V55" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W55" s="30">
+        <v>1</v>
+      </c>
+      <c r="X55" s="30">
+        <v>158.79338197167246</v>
+      </c>
+      <c r="Y55" s="30">
+        <v>158.79338197167246</v>
+      </c>
+      <c r="Z55" s="30">
+        <v>41.614054902980484</v>
+      </c>
+      <c r="AA55" s="30">
+        <v>7.7734604471233142E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V56" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="W56" s="30">
+        <v>26</v>
+      </c>
+      <c r="X56" s="30">
+        <v>99.212344023888505</v>
+      </c>
+      <c r="Y56" s="30">
+        <v>3.8158593855341731</v>
+      </c>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+    </row>
+    <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="V57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="31">
+        <v>27</v>
+      </c>
+      <c r="X57" s="31">
+        <v>258.00572599556097</v>
+      </c>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31"/>
+    </row>
+    <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="30">
+        <v>1.9367011564211865</v>
+      </c>
+      <c r="D58" s="30">
+        <v>1.3140306330235505</v>
+      </c>
+      <c r="E58" s="30">
+        <v>1.4738630194372921</v>
+      </c>
+      <c r="F58" s="30">
+        <v>0.15252403709121817</v>
+      </c>
+      <c r="G58" s="30">
+        <v>-0.76432749303725167</v>
+      </c>
+      <c r="H58" s="30">
+        <v>4.6377298058796246</v>
+      </c>
+      <c r="I58" s="30">
+        <v>-0.76432749303725167</v>
+      </c>
+      <c r="J58" s="30">
+        <v>4.6377298058796246</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="31">
+        <v>0.78149726110772955</v>
+      </c>
+      <c r="D59" s="31">
+        <v>5.7616141453765347E-2</v>
+      </c>
+      <c r="E59" s="31">
+        <v>13.563859734252596</v>
+      </c>
+      <c r="F59" s="31">
+        <v>2.6497306960427667E-13</v>
+      </c>
+      <c r="G59" s="31">
+        <v>0.66306558620850287</v>
+      </c>
+      <c r="H59" s="31">
+        <v>0.89992893600695623</v>
+      </c>
+      <c r="I59" s="31">
+        <v>0.66306558620850287</v>
+      </c>
+      <c r="J59" s="31">
+        <v>0.89992893600695623</v>
+      </c>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="X59" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y59" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z59" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA59" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB59" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC59" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD59" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W60" s="30">
+        <v>0.99585822575716332</v>
+      </c>
+      <c r="X60" s="30">
+        <v>1.0386324138674903</v>
+      </c>
+      <c r="Y60" s="30">
+        <v>0.95881681763517146</v>
+      </c>
+      <c r="Z60" s="30">
+        <v>0.34648299357379897</v>
+      </c>
+      <c r="AA60" s="30">
+        <v>-1.1390812768761713</v>
+      </c>
+      <c r="AB60" s="30">
+        <v>3.130797728390498</v>
+      </c>
+      <c r="AC60" s="30">
+        <v>-1.1390812768761713</v>
+      </c>
+      <c r="AD60" s="30">
+        <v>3.130797728390498</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V61" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="W61" s="31">
+        <v>0.75619061738170512</v>
+      </c>
+      <c r="X61" s="31">
+        <v>0.11722257752240567</v>
+      </c>
+      <c r="Y61" s="31">
+        <v>6.4508956667257085</v>
+      </c>
+      <c r="Z61" s="31">
+        <v>7.7734604471232591E-7</v>
+      </c>
+      <c r="AA61" s="31">
+        <v>0.51523615841080395</v>
+      </c>
+      <c r="AB61" s="31">
+        <v>0.9971450763526063</v>
+      </c>
+      <c r="AC61" s="31">
+        <v>0.51523615841080395</v>
+      </c>
+      <c r="AD61" s="31">
+        <v>0.9971450763526063</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B65" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="V65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="30">
+        <v>1</v>
+      </c>
+      <c r="C66" s="30">
+        <v>8.9701765063907519</v>
+      </c>
+      <c r="D66" s="30">
+        <v>1.0298234936092481</v>
+      </c>
+      <c r="E66" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <f>D66^2</f>
+        <v>1.0605364279895571</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B67" s="30">
+        <v>2</v>
+      </c>
+      <c r="C67" s="30">
+        <v>9.751673767498481</v>
+      </c>
+      <c r="D67" s="30">
+        <v>2.248326232501519</v>
+      </c>
+      <c r="E67">
+        <f>D66</f>
+        <v>1.0298234936092481</v>
+      </c>
+      <c r="F67">
+        <f>(D67-E67)^2</f>
+        <v>1.4847489246879657</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G93" si="3">D67^2</f>
+        <v>5.0549708477544746</v>
+      </c>
+      <c r="V67" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="W67" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="X67" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y67" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B68" s="30">
+        <v>3</v>
+      </c>
+      <c r="C68" s="30">
+        <v>8.9701765063907519</v>
+      </c>
+      <c r="D68" s="30">
+        <v>2.0298234936092481</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E93" si="4">D67</f>
+        <v>2.248326232501519</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F93" si="5">(D68-E68)^2</f>
+        <v>4.7743446903423914E-2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>4.1201834152080528</v>
+      </c>
+      <c r="V68" s="30">
+        <v>1</v>
+      </c>
+      <c r="W68" s="30">
+        <v>6.2081878813267481</v>
+      </c>
+      <c r="X68" s="30">
+        <v>1.4505654302789832</v>
+      </c>
+      <c r="Y68" s="68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69" s="30">
+        <v>4</v>
+      </c>
+      <c r="C69" s="30">
+        <v>10.533171028606212</v>
+      </c>
+      <c r="D69" s="30">
+        <v>-0.53317102860621191</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>2.0298234936092481</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>6.5689409209064538</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0.28427134574500601</v>
+      </c>
+      <c r="V69" s="30">
+        <v>2</v>
+      </c>
+      <c r="W69" s="30">
+        <v>4.1817635087178244</v>
+      </c>
+      <c r="X69" s="30">
+        <v>1.3883455348220091</v>
+      </c>
+      <c r="Y69">
+        <f>X68</f>
+        <v>1.4505654302789832</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B70" s="30">
+        <v>5</v>
+      </c>
+      <c r="C70" s="30">
+        <v>9.751673767498481</v>
+      </c>
+      <c r="D70" s="30">
+        <v>1.248326232501519</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>-0.53317102860621191</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>3.1737324913343468</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>1.5583183827514364</v>
+      </c>
+      <c r="V70" s="30">
+        <v>3</v>
+      </c>
+      <c r="W70" s="30">
+        <v>2.9393505701298537</v>
+      </c>
+      <c r="X70" s="30">
+        <v>0.34478028211794598</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" ref="Y70:Y95" si="6">X69</f>
+        <v>1.3883455348220091</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B71" s="30">
+        <v>6</v>
+      </c>
+      <c r="C71" s="30">
+        <v>11.314668289713941</v>
+      </c>
+      <c r="D71" s="30">
+        <v>1.685331710286059</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>1.248326232501519</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>0.1909737876136941</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>2.8403429736957326</v>
+      </c>
+      <c r="V71" s="30">
+        <v>4</v>
+      </c>
+      <c r="W71" s="30">
+        <v>4.9379541260995294</v>
+      </c>
+      <c r="X71" s="30">
+        <v>-2.0108341782057133</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="6"/>
+        <v>0.34478028211794598</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B72" s="30">
+        <v>7</v>
+      </c>
+      <c r="C72" s="30">
+        <v>12.09616555082167</v>
+      </c>
+      <c r="D72" s="30">
+        <v>2.9038344491783299</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>1.685331710286059</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>1.4847489246879657</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>8.4322545082348146</v>
+      </c>
+      <c r="V72" s="30">
+        <v>5</v>
+      </c>
+      <c r="W72" s="30">
+        <v>3.2093188663052925</v>
+      </c>
+      <c r="X72" s="30">
+        <v>1.360790177234541</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="6"/>
+        <v>-2.0108341782057133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73" s="30">
+        <v>8</v>
+      </c>
+      <c r="C73" s="30">
+        <v>12.877662811929401</v>
+      </c>
+      <c r="D73" s="30">
+        <v>3.122337188070599</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>2.9038344491783299</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>4.7743446903423137E-2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>9.7489895160086153</v>
+      </c>
+      <c r="V73" s="30">
+        <v>6</v>
+      </c>
+      <c r="W73" s="30">
+        <v>5.2079224222749687</v>
+      </c>
+      <c r="X73" s="30">
+        <v>0.71919752561884742</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="6"/>
+        <v>1.360790177234541</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B74" s="30">
+        <v>9</v>
+      </c>
+      <c r="C74" s="30">
+        <v>12.877662811929401</v>
+      </c>
+      <c r="D74" s="30">
+        <v>-1.877662811929401</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>3.122337188070599</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>3.5256176353026252</v>
+      </c>
+      <c r="V74" s="30">
+        <v>7</v>
+      </c>
+      <c r="W74" s="30">
+        <v>4.9916683972441422</v>
+      </c>
+      <c r="X74" s="30">
+        <v>1.6494733593576409</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="6"/>
+        <v>0.71919752561884742</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B75" s="30">
+        <v>10</v>
+      </c>
+      <c r="C75" s="30">
+        <v>15.222154595252588</v>
+      </c>
+      <c r="D75" s="30">
+        <v>-4.2221545952525883</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>-1.877662811929401</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>5.4966417220699393</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>17.826589426212546</v>
+      </c>
+      <c r="V75" s="30">
+        <v>8</v>
+      </c>
+      <c r="W75" s="30">
+        <v>5.2616366934195824</v>
+      </c>
+      <c r="X75" s="30">
+        <v>1.0935268718901678</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="6"/>
+        <v>1.6494733593576409</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B76" s="30">
+        <v>11</v>
+      </c>
+      <c r="C76" s="30">
+        <v>16.003651856360317</v>
+      </c>
+      <c r="D76" s="30">
+        <v>-6.0036518563603174</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>-4.2221545952525883</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>3.1737324913343401</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>36.043835612378686</v>
+      </c>
+      <c r="V76" s="30">
+        <v>9</v>
+      </c>
+      <c r="W76" s="30">
+        <v>4.7754143722133158</v>
+      </c>
+      <c r="X76" s="30">
+        <v>-4.0632399025495829</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="6"/>
+        <v>1.0935268718901678</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B77" s="30">
+        <v>12</v>
+      </c>
+      <c r="C77" s="30">
+        <v>16.003651856360317</v>
+      </c>
+      <c r="D77" s="30">
+        <v>-5.0036518563603174</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>-6.0036518563603174</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>25.036531899658051</v>
+      </c>
+      <c r="V77" s="30">
+        <v>10</v>
+      </c>
+      <c r="W77" s="30">
+        <v>7.0439862243584317</v>
+      </c>
+      <c r="X77" s="30">
+        <v>-3.1168662764646156</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="6"/>
+        <v>-4.0632399025495829</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B78" s="30">
+        <v>13</v>
+      </c>
+      <c r="C78" s="30">
+        <v>17.566646378575776</v>
+      </c>
+      <c r="D78" s="30">
+        <v>-2.5666463785757756</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>-5.0036518563603174</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>5.9389956987518628</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>6.587673632656144</v>
+      </c>
+      <c r="V78" s="30">
+        <v>11</v>
+      </c>
+      <c r="W78" s="30">
+        <v>6.3415098781213395</v>
+      </c>
+      <c r="X78" s="30">
+        <v>-3.4143899302275234</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="6"/>
+        <v>-3.1168662764646156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B79" s="30">
+        <v>14</v>
+      </c>
+      <c r="C79" s="30">
+        <v>18.348143639683506</v>
+      </c>
+      <c r="D79" s="30">
+        <v>-3.3481436396835065</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>-2.5666463785757756</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>0.61073796911888489</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>11.210065831953118</v>
+      </c>
+      <c r="V79" s="30">
+        <v>12</v>
+      </c>
+      <c r="W79" s="30">
+        <v>5.8552875569150746</v>
+      </c>
+      <c r="X79" s="30">
+        <v>-1.2851785133752411</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="6"/>
+        <v>-3.4143899302275234</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B80" s="30">
+        <v>15</v>
+      </c>
+      <c r="C80" s="30">
+        <v>20.692635423006696</v>
+      </c>
+      <c r="D80" s="30">
+        <v>1.3073645769933044</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>-3.3481436396835065</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>21.673756755545302</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>1.7092021371768817</v>
+      </c>
+      <c r="V80" s="30">
+        <v>13</v>
+      </c>
+      <c r="W80" s="30">
+        <v>7.3676687916784855</v>
+      </c>
+      <c r="X80" s="30">
+        <v>0.55945115621533059</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="6"/>
+        <v>-1.2851785133752411</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B81" s="30">
+        <v>16</v>
+      </c>
+      <c r="C81" s="30">
+        <v>22.255629945222154</v>
+      </c>
+      <c r="D81" s="30">
+        <v>-1.2556299452221538</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>1.3073645769933044</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>6.5689409209064449</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>1.576606559338589</v>
+      </c>
+      <c r="V81" s="30">
+        <v>14</v>
+      </c>
+      <c r="W81" s="30">
+        <v>7.1514147666476591</v>
+      </c>
+      <c r="X81" s="30">
+        <v>-1.7962512013379088</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="6"/>
+        <v>0.55945115621533059</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B82" s="30">
+        <v>17</v>
+      </c>
+      <c r="C82" s="30">
+        <v>20.692635423006696</v>
+      </c>
+      <c r="D82" s="30">
+        <v>0.30736457699330444</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>-1.2556299452221538</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>2.4429518764755285</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>9.4472983190272974E-2</v>
+      </c>
+      <c r="V82" s="30">
+        <v>15</v>
+      </c>
+      <c r="W82" s="30">
+        <v>8.9337642975865084</v>
+      </c>
+      <c r="X82" s="30">
+        <v>3.4213992677232419</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="6"/>
+        <v>-1.7962512013379088</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B83" s="30">
+        <v>18</v>
+      </c>
+      <c r="C83" s="30">
+        <v>21.474132684114426</v>
+      </c>
+      <c r="D83" s="30">
+        <v>1.5258673158855736</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0.30736457699330444</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>1.4847489246879615</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>2.3282710656878449</v>
+      </c>
+      <c r="V83" s="30">
+        <v>16</v>
+      </c>
+      <c r="W83" s="30">
+        <v>8.9874785687311221</v>
+      </c>
+      <c r="X83" s="30">
+        <v>-2.1332386729434898</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="6"/>
+        <v>3.4213992677232419</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B84" s="30">
+        <v>19</v>
+      </c>
+      <c r="C84" s="30">
+        <v>22.255629945222154</v>
+      </c>
+      <c r="D84" s="30">
+        <v>1.7443700547778462</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>1.5258673158855736</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>4.7743446903424691E-2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>3.0428268880056661</v>
+      </c>
+      <c r="V84" s="30">
+        <v>17</v>
+      </c>
+      <c r="W84" s="30">
+        <v>6.5026526915551806</v>
+      </c>
+      <c r="X84" s="30">
+        <v>0.99457629987846907</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="6"/>
+        <v>-2.1332386729434898</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B85" s="30">
+        <v>20</v>
+      </c>
+      <c r="C85" s="30">
+        <v>23.818624467437616</v>
+      </c>
+      <c r="D85" s="30">
+        <v>0.18137553256238448</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>1.7443700547778462</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>2.4429518764755396</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>3.2897083812288591E-2</v>
+      </c>
+      <c r="V85" s="30">
+        <v>18</v>
+      </c>
+      <c r="W85" s="30">
+        <v>8.231287951349417</v>
+      </c>
+      <c r="X85" s="30">
+        <v>1.2659410400842326</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="6"/>
+        <v>0.99457629987846907</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B86" s="30">
+        <v>21</v>
+      </c>
+      <c r="C86" s="30">
+        <v>26.163116250760801</v>
+      </c>
+      <c r="D86" s="30">
+        <v>-1.1631162507608011</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>0.18137553256238448</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>1.8076581554235596</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>1.3528394127838625</v>
+      </c>
+      <c r="V86" s="30">
+        <v>19</v>
+      </c>
+      <c r="W86" s="30">
+        <v>8.5012562475248554</v>
+      </c>
+      <c r="X86" s="30">
+        <v>0.70999455261676125</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="6"/>
+        <v>1.2659410400842326</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B87" s="30">
+        <v>22</v>
+      </c>
+      <c r="C87" s="30">
+        <v>26.163116250760801</v>
+      </c>
+      <c r="D87" s="30">
+        <v>-0.16311625076080105</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>-1.1631162507608011</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>2.660691126226053E-2</v>
+      </c>
+      <c r="V87" s="30">
+        <v>20</v>
+      </c>
+      <c r="W87" s="30">
+        <v>9.5274151610820006</v>
+      </c>
+      <c r="X87" s="30">
+        <v>-0.95915345658640128</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="6"/>
+        <v>0.70999455261676125</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B88" s="30">
+        <v>23</v>
+      </c>
+      <c r="C88" s="30">
+        <v>22.255629945222154</v>
+      </c>
+      <c r="D88" s="30">
+        <v>2.7443700547778462</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>-0.16311625076080105</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>8.4534766168947719</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>7.5315669975613586</v>
+      </c>
+      <c r="K88" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88">
+        <f>F94/G94</f>
+        <v>0.71402180870796661</v>
+      </c>
+      <c r="V88" s="30">
+        <v>21</v>
+      </c>
+      <c r="W88" s="30">
+        <v>10.823542370814586</v>
+      </c>
+      <c r="X88" s="30">
+        <v>-1.2552806663189866</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="6"/>
+        <v>-0.95915345658640128</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B89" s="30">
+        <v>24</v>
+      </c>
+      <c r="C89" s="30">
+        <v>23.037127206329885</v>
+      </c>
+      <c r="D89" s="30">
+        <v>-3.7127206329884643E-2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>2.7443700547778462</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>7.7367270135498085</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>1.3784294498618264E-3</v>
+      </c>
+      <c r="V89" s="30">
+        <v>22</v>
+      </c>
+      <c r="W89" s="30">
+        <v>9.364875407195786</v>
+      </c>
+      <c r="X89" s="30">
+        <v>0.56039720165379592</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="6"/>
+        <v>-1.2552806663189866</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B90" s="30">
+        <v>25</v>
+      </c>
+      <c r="C90" s="30">
+        <v>26.944613511868532</v>
+      </c>
+      <c r="D90" s="30">
+        <v>5.538648813146807E-2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>-3.7127206329884643E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>8.5587836628885239E-3</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>3.0676630675372536E-3</v>
+      </c>
+      <c r="K90" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="L90" s="71"/>
+      <c r="M90" s="71"/>
+      <c r="N90">
+        <f>1-N88/2</f>
+        <v>0.6429890956460167</v>
+      </c>
+      <c r="V90" s="30">
+        <v>23</v>
+      </c>
+      <c r="W90" s="30">
+        <v>5.5839223202872619</v>
+      </c>
+      <c r="X90" s="30">
+        <v>2.6983611929163045</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="6"/>
+        <v>0.56039720165379592</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B91" s="30">
+        <v>26</v>
+      </c>
+      <c r="C91" s="30">
+        <v>27.726110772976263</v>
+      </c>
+      <c r="D91" s="30">
+        <v>0.27388922702373719</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>5.538648813146807E-2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>4.7743446903423137E-2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>7.5015308679660248E-2</v>
+      </c>
+      <c r="V91" s="30">
+        <v>24</v>
+      </c>
+      <c r="W91" s="30">
+        <v>8.7712245437002956</v>
+      </c>
+      <c r="X91" s="30">
+        <v>-1.8459519348507136</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="6"/>
+        <v>2.6983611929163045</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B92" s="30">
+        <v>27</v>
+      </c>
+      <c r="C92" s="30">
+        <v>28.50760803408399</v>
+      </c>
+      <c r="D92" s="30">
+        <v>0.49239196591600987</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0.27388922702373719</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>4.7743446903424691E-2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>0.24244984809863301</v>
+      </c>
+      <c r="V92" s="30">
+        <v>25</v>
+      </c>
+      <c r="W92" s="30">
+        <v>12.065955309402558</v>
+      </c>
+      <c r="X92" s="30">
+        <v>0.14529549073905912</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="6"/>
+        <v>-1.8459519348507136</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="31">
+        <v>28</v>
+      </c>
+      <c r="C93" s="31">
+        <v>27.726110772976263</v>
+      </c>
+      <c r="D93" s="31">
+        <v>3.2738892270237372</v>
+      </c>
+      <c r="E93" s="31">
+        <f t="shared" si="4"/>
+        <v>0.49239196591600987</v>
+      </c>
+      <c r="F93" s="31">
+        <f t="shared" si="5"/>
+        <v>7.736727013549789</v>
+      </c>
+      <c r="G93" s="31">
+        <f t="shared" si="3"/>
+        <v>10.718350670822083</v>
+      </c>
+      <c r="V93" s="30">
+        <v>26</v>
+      </c>
+      <c r="W93" s="30">
+        <v>10.391034320752933</v>
+      </c>
+      <c r="X93" s="30">
+        <v>0.2482600968046178</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="6"/>
+        <v>0.14529549073905912</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="31">
+        <f>SUM(F67:F93)</f>
+        <v>115.71846810219418</v>
+      </c>
+      <c r="G94" s="31">
+        <f>SUM(G66:G93)</f>
+        <v>162.06573341448563</v>
+      </c>
+      <c r="V94" s="30">
+        <v>27</v>
+      </c>
+      <c r="W94" s="30">
+        <v>10.661002616928375</v>
+      </c>
+      <c r="X94" s="30">
+        <v>0.33530270498315673</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="6"/>
+        <v>0.2482600968046178</v>
+      </c>
+    </row>
+    <row r="95" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V95" s="31">
+        <v>28</v>
+      </c>
+      <c r="W95" s="31">
+        <v>9.4185896783403997</v>
+      </c>
+      <c r="X95" s="31">
+        <v>2.9347265479251163</v>
+      </c>
+      <c r="Y95" s="31">
+        <f t="shared" si="6"/>
+        <v>0.33530270498315673</v>
+      </c>
+    </row>
+    <row r="98" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V98" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="W98" s="71"/>
+      <c r="X98" s="71"/>
+      <c r="Y98">
+        <f>CORREL(X69:X95,Y69:Y95)</f>
+        <v>8.7391174887731654E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="V98:X98"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2566ED-5627-480B-BFC0-9CB6830669B9}">
+  <dimension ref="B3:AA80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D4</f>
+        <v>1.51</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E27" si="0">D5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D4</f>
+        <v>1.51</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F27" si="1">D5</f>
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="2">
+        <f>D4</f>
+        <v>1.51</v>
+      </c>
+      <c r="H7" s="2">
+        <f>D7+E7+F7+G7</f>
+        <v>6.04</v>
+      </c>
+      <c r="I7" s="9">
+        <f>E7+2*F7+3*G7</f>
+        <v>9.0300000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G27" si="2">D5</f>
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H27" si="3">D8+E8+F8+G8</f>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" ref="I8:I27" si="4">E8+2*F8+3*G8</f>
+        <v>9.0300000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.53</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>6.11</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="4"/>
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.53</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.53</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>6.19</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.53</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>6.28</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="4"/>
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.55</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="4"/>
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.58</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>6.48</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="4"/>
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.62</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>6.55</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="4"/>
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.63</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="4"/>
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.63</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>6.589999999999999</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="4"/>
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>6.65</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="4"/>
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.64</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.67</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7399999999999993</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="4"/>
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.74</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.69</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.64</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>6.87</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="4"/>
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>1.74</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.69</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>6.98</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="4"/>
+        <v>10.350000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.74</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>6.94</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="4"/>
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="3"/>
+        <v>6.93</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="4"/>
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9399999999999995</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="4"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.81</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>1.73</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0600000000000005</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="4"/>
+        <v>10.219999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.87</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>1.81</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>1.73</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="4"/>
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.88</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.87</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.81</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="4"/>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>1.88</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.87</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>7.39</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="4"/>
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="S35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" s="33"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.99439178108236492</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="T36" s="30">
+        <v>0.98949024587339052</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.98881501428415797</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="30">
+        <v>0.97909094667858276</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.98601876785519749</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T38" s="30">
+        <v>0.97676771853175859</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="30">
+        <v>6.641344634338435E-2</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" s="30">
+        <v>8.5610931858445455E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="31">
+        <v>21</v>
+      </c>
+      <c r="S40" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U43" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V43" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W43" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="X43" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="30">
+        <v>4</v>
+      </c>
+      <c r="D44" s="30">
+        <v>6.238951875840522</v>
+      </c>
+      <c r="E44" s="30">
+        <v>1.5597379689601305</v>
+      </c>
+      <c r="F44" s="30">
+        <v>353.6222716435401</v>
+      </c>
+      <c r="G44" s="30">
+        <v>2.1826621902097962E-15</v>
+      </c>
+      <c r="S44" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="T44" s="30">
+        <v>2</v>
+      </c>
+      <c r="U44" s="30">
+        <v>6.1775976397577264</v>
+      </c>
+      <c r="V44" s="30">
+        <v>3.0887988198788632</v>
+      </c>
+      <c r="W44" s="30">
+        <v>421.43555639036305</v>
+      </c>
+      <c r="X44" s="30">
+        <v>7.6385219554377915E-16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="30">
+        <v>16</v>
+      </c>
+      <c r="D45" s="30">
+        <v>7.057193368328947E-2</v>
+      </c>
+      <c r="E45" s="30">
+        <v>4.4107458552055919E-3</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="S45" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="T45" s="30">
+        <v>18</v>
+      </c>
+      <c r="U45" s="30">
+        <v>0.13192616976608504</v>
+      </c>
+      <c r="V45" s="30">
+        <v>7.3292316536713907E-3</v>
+      </c>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+    </row>
+    <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="31">
+        <v>20</v>
+      </c>
+      <c r="D46" s="31">
+        <v>6.3095238095238111</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="S46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="31">
+        <v>20</v>
+      </c>
+      <c r="U46" s="31">
+        <v>6.3095238095238111</v>
+      </c>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+    </row>
+    <row r="47" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V48" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="W48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="X48" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y48" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA48" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="30">
+        <v>-4.4933721134097127</v>
+      </c>
+      <c r="D49" s="30">
+        <v>0.24588725944503109</v>
+      </c>
+      <c r="E49" s="30">
+        <v>-18.274115232937561</v>
+      </c>
+      <c r="F49" s="30">
+        <v>3.8290435714701037E-12</v>
+      </c>
+      <c r="G49" s="30">
+        <v>-5.0146298177182258</v>
+      </c>
+      <c r="H49" s="30">
+        <v>-3.9721144091011995</v>
+      </c>
+      <c r="I49" s="30">
+        <v>-5.0146298177182258</v>
+      </c>
+      <c r="J49" s="30">
+        <v>-3.9721144091011995</v>
+      </c>
+      <c r="S49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="30">
+        <v>-4.3253228853135317</v>
+      </c>
+      <c r="U49" s="30">
+        <v>0.30797551928153066</v>
+      </c>
+      <c r="V49" s="30">
+        <v>-14.044372407923793</v>
+      </c>
+      <c r="W49" s="30">
+        <v>3.8578259783787436E-11</v>
+      </c>
+      <c r="X49" s="30">
+        <v>-4.9723554416267781</v>
+      </c>
+      <c r="Y49" s="30">
+        <v>-3.6782903290002853</v>
+      </c>
+      <c r="Z49" s="30">
+        <v>-4.9723554416267781</v>
+      </c>
+      <c r="AA49" s="30">
+        <v>-3.6782903290002853</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="30">
+        <v>2.7031374299376041</v>
+      </c>
+      <c r="D50" s="30">
+        <v>0.36532474836014606</v>
+      </c>
+      <c r="E50" s="30">
+        <v>7.3992726801875062</v>
+      </c>
+      <c r="F50" s="30">
+        <v>1.5036342316555218E-6</v>
+      </c>
+      <c r="G50" s="30">
+        <v>1.9286835599522589</v>
+      </c>
+      <c r="H50" s="30">
+        <v>3.477591299922949</v>
+      </c>
+      <c r="I50" s="30">
+        <v>1.9286835599522589</v>
+      </c>
+      <c r="J50" s="30">
+        <v>3.477591299922949</v>
+      </c>
+      <c r="S50" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="T50" s="30">
+        <v>1.869241134053325</v>
+      </c>
+      <c r="U50" s="30">
+        <v>0.229640887627058</v>
+      </c>
+      <c r="V50" s="30">
+        <v>8.1398445780657962</v>
+      </c>
+      <c r="W50" s="30">
+        <v>1.9130557724996703E-7</v>
+      </c>
+      <c r="X50" s="30">
+        <v>1.3867835318971236</v>
+      </c>
+      <c r="Y50" s="30">
+        <v>2.3516987362095265</v>
+      </c>
+      <c r="Z50" s="30">
+        <v>1.3867835318971236</v>
+      </c>
+      <c r="AA50" s="30">
+        <v>2.3516987362095265</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0.58542978386086608</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0.51964939515183683</v>
+      </c>
+      <c r="E51" s="30">
+        <v>1.1265860969390888</v>
+      </c>
+      <c r="F51" s="30">
+        <v>0.27653127352838169</v>
+      </c>
+      <c r="G51" s="30">
+        <v>-0.51617772265863271</v>
+      </c>
+      <c r="H51" s="30">
+        <v>1.6870372903803648</v>
+      </c>
+      <c r="I51" s="30">
+        <v>-0.51617772265863271</v>
+      </c>
+      <c r="J51" s="30">
+        <v>1.6870372903803648</v>
+      </c>
+      <c r="S51" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="T51" s="31">
+        <v>-0.35980640489070032</v>
+      </c>
+      <c r="U51" s="31">
+        <v>0.14958518601978643</v>
+      </c>
+      <c r="V51" s="31">
+        <v>-2.4053612156694903</v>
+      </c>
+      <c r="W51" s="31">
+        <v>2.712661363719043E-2</v>
+      </c>
+      <c r="X51" s="31">
+        <v>-0.67407321909322526</v>
+      </c>
+      <c r="Y51" s="31">
+        <v>-4.5539590688175424E-2</v>
+      </c>
+      <c r="Z51" s="31">
+        <v>-0.67407321909322526</v>
+      </c>
+      <c r="AA51" s="31">
+        <v>-4.5539590688175424E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B52" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="30">
+        <v>0.7565734526521487</v>
+      </c>
+      <c r="D52" s="30">
+        <v>0.56526022335731341</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1.3384516040391932</v>
+      </c>
+      <c r="F52" s="30">
+        <v>0.19945939841239374</v>
+      </c>
+      <c r="G52" s="30">
+        <v>-0.44172469028201033</v>
+      </c>
+      <c r="H52" s="30">
+        <v>1.9548715955863076</v>
+      </c>
+      <c r="I52" s="30">
+        <v>-0.44172469028201033</v>
+      </c>
+      <c r="J52" s="30">
+        <v>1.9548715955863076</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1.3727343464019508</v>
+      </c>
+      <c r="D53" s="31">
+        <v>0.42488113403874428</v>
+      </c>
+      <c r="E53" s="31">
+        <v>3.230866791738447</v>
+      </c>
+      <c r="F53" s="31">
+        <v>5.2272400215335113E-3</v>
+      </c>
+      <c r="G53" s="31">
+        <v>0.47202657881408039</v>
+      </c>
+      <c r="H53" s="31">
+        <v>2.2734421139898213</v>
+      </c>
+      <c r="I53" s="31">
+        <v>0.47202657881408039</v>
+      </c>
+      <c r="J53" s="31">
+        <v>2.2734421139898213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="S55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="S57" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U57" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S58" s="30">
+        <v>1</v>
+      </c>
+      <c r="T58" s="30">
+        <v>3.7158417282055267</v>
+      </c>
+      <c r="U58" s="30">
+        <v>-1.584172820552654E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" s="30">
+        <v>2</v>
+      </c>
+      <c r="T59" s="30">
+        <v>3.7532265508865943</v>
+      </c>
+      <c r="U59" s="30">
+        <v>-5.3226550886594115E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B60" s="30">
+        <v>1</v>
+      </c>
+      <c r="C60" s="30">
+        <v>3.7282618722312901</v>
+      </c>
+      <c r="D60" s="30">
+        <v>-2.8261872231289953E-2</v>
+      </c>
+      <c r="S60" s="30">
+        <v>3</v>
+      </c>
+      <c r="T60" s="30">
+        <v>3.8251002232958191</v>
+      </c>
+      <c r="U60" s="30">
+        <v>-2.5100223295819291E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B61" s="30">
+        <v>2</v>
+      </c>
+      <c r="C61" s="30">
+        <v>3.7320974222830965</v>
+      </c>
+      <c r="D61" s="30">
+        <v>-3.2097422283096311E-2</v>
+      </c>
+      <c r="S61" s="30">
+        <v>4</v>
+      </c>
+      <c r="T61" s="30">
+        <v>3.9350608094821089</v>
+      </c>
+      <c r="U61" s="30">
+        <v>-3.506080948210899E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B62" s="30">
+        <v>3</v>
+      </c>
+      <c r="C62" s="30">
+        <v>3.8088573744614127</v>
+      </c>
+      <c r="D62" s="30">
+        <v>-8.8573744614128813E-3</v>
+      </c>
+      <c r="S62" s="30">
+        <v>5</v>
+      </c>
+      <c r="T62" s="30">
+        <v>4.078106063204558</v>
+      </c>
+      <c r="U62" s="30">
+        <v>2.1893936795441604E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B63" s="30">
+        <v>4</v>
+      </c>
+      <c r="C63" s="30">
+        <v>3.9428421234288171</v>
+      </c>
+      <c r="D63" s="30">
+        <v>-4.2842123428817214E-2</v>
+      </c>
+      <c r="S63" s="30">
+        <v>6</v>
+      </c>
+      <c r="T63" s="30">
+        <v>4.2448459745084435</v>
+      </c>
+      <c r="U63" s="30">
+        <v>-4.4845974508443298E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B64" s="30">
+        <v>5</v>
+      </c>
+      <c r="C64" s="30">
+        <v>4.0836619831951904</v>
+      </c>
+      <c r="D64" s="30">
+        <v>1.6338016804809286E-2</v>
+      </c>
+      <c r="S64" s="30">
+        <v>7</v>
+      </c>
+      <c r="T64" s="30">
+        <v>4.32242398425457</v>
+      </c>
+      <c r="U64" s="30">
+        <v>-2.2423984254570151E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="30">
+        <v>6</v>
+      </c>
+      <c r="C65" s="30">
+        <v>4.2383251879553558</v>
+      </c>
+      <c r="D65" s="30">
+        <v>-3.8325187955355666E-2</v>
+      </c>
+      <c r="S65" s="30">
+        <v>8</v>
+      </c>
+      <c r="T65" s="30">
+        <v>4.3957018388557909</v>
+      </c>
+      <c r="U65" s="30">
+        <v>4.2981611442094447E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="30">
+        <v>7</v>
+      </c>
+      <c r="C66" s="30">
+        <v>4.273270301370574</v>
+      </c>
+      <c r="D66" s="30">
+        <v>2.6729698629425869E-2</v>
+      </c>
+      <c r="S66" s="30">
+        <v>9</v>
+      </c>
+      <c r="T66" s="30">
+        <v>4.4639774472161076</v>
+      </c>
+      <c r="U66" s="30">
+        <v>3.6022552783892436E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B67" s="30">
+        <v>8</v>
+      </c>
+      <c r="C67" s="30">
+        <v>4.3932310317277512</v>
+      </c>
+      <c r="D67" s="30">
+        <v>6.768968272249154E-3</v>
+      </c>
+      <c r="S67" s="30">
+        <v>10</v>
+      </c>
+      <c r="T67" s="30">
+        <v>4.4452850358755729</v>
+      </c>
+      <c r="U67" s="30">
+        <v>5.4714964124427112E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B68" s="30">
+        <v>9</v>
+      </c>
+      <c r="C68" s="30">
+        <v>4.4850529373427355</v>
+      </c>
+      <c r="D68" s="30">
+        <v>1.4947062657264532E-2</v>
+      </c>
+      <c r="S68" s="30">
+        <v>11</v>
+      </c>
+      <c r="T68" s="30">
+        <v>4.5322530555764278</v>
+      </c>
+      <c r="U68" s="30">
+        <v>6.7746944423571875E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="30">
+        <v>10</v>
+      </c>
+      <c r="C69" s="30">
+        <v>4.4033441922468288</v>
+      </c>
+      <c r="D69" s="30">
+        <v>9.6655807753171175E-2</v>
+      </c>
+      <c r="S69" s="30">
+        <v>12</v>
+      </c>
+      <c r="T69" s="30">
+        <v>4.682494437396687</v>
+      </c>
+      <c r="U69" s="30">
+        <v>1.7505562603313152E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="30">
+        <v>11</v>
+      </c>
+      <c r="C70" s="30">
+        <v>4.5635243262089658</v>
+      </c>
+      <c r="D70" s="30">
+        <v>3.6475673791033891E-2</v>
+      </c>
+      <c r="S70" s="30">
+        <v>13</v>
+      </c>
+      <c r="T70" s="30">
+        <v>4.9039074005301817</v>
+      </c>
+      <c r="U70" s="30">
+        <v>-3.9074005301813486E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="30">
+        <v>12</v>
+      </c>
+      <c r="C71" s="30">
+        <v>4.7327101702473637</v>
+      </c>
+      <c r="D71" s="30">
+        <v>-3.2710170247363557E-2</v>
+      </c>
+      <c r="S71" s="30">
+        <v>14</v>
+      </c>
+      <c r="T71" s="30">
+        <v>4.9979839397599282</v>
+      </c>
+      <c r="U71" s="30">
+        <v>-0.19798393975992834</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="30">
+        <v>13</v>
+      </c>
+      <c r="C72" s="30">
+        <v>4.9208165474772123</v>
+      </c>
+      <c r="D72" s="30">
+        <v>-2.0816547477211955E-2</v>
+      </c>
+      <c r="S72" s="30">
+        <v>15</v>
+      </c>
+      <c r="T72" s="30">
+        <v>4.8440568853218426</v>
+      </c>
+      <c r="U72" s="30">
+        <v>-4.405688532184282E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="30">
+        <v>14</v>
+      </c>
+      <c r="C73" s="30">
+        <v>4.9272508529646881</v>
+      </c>
+      <c r="D73" s="30">
+        <v>-0.1272508529646883</v>
+      </c>
+      <c r="S73" s="30">
+        <v>16</v>
+      </c>
+      <c r="T73" s="30">
+        <v>4.8325606020791216</v>
+      </c>
+      <c r="U73" s="30">
+        <v>0.16743939792087836</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="30">
+        <v>15</v>
+      </c>
+      <c r="C74" s="30">
+        <v>4.7416967452571113</v>
+      </c>
+      <c r="D74" s="30">
+        <v>5.8303254742888555E-2</v>
+      </c>
+      <c r="S74" s="30">
+        <v>17</v>
+      </c>
+      <c r="T74" s="30">
+        <v>4.9484007427401462</v>
+      </c>
+      <c r="U74" s="30">
+        <v>0.15159925725985346</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B75" s="30">
+        <v>16</v>
+      </c>
+      <c r="C75" s="30">
+        <v>4.9439401494175428</v>
+      </c>
+      <c r="D75" s="30">
+        <v>5.6059850582457216E-2</v>
+      </c>
+      <c r="S75" s="30">
+        <v>18</v>
+      </c>
+      <c r="T75" s="30">
+        <v>5.1942980631199864</v>
+      </c>
+      <c r="U75" s="30">
+        <v>0.10570193688001339</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="30">
+        <v>17</v>
+      </c>
+      <c r="C76" s="30">
+        <v>5.0627314639361085</v>
+      </c>
+      <c r="D76" s="30">
+        <v>3.7268536063891133E-2</v>
+      </c>
+      <c r="S76" s="30">
+        <v>19</v>
+      </c>
+      <c r="T76" s="30">
+        <v>5.4587125777025296</v>
+      </c>
+      <c r="U76" s="30">
+        <v>-5.8712577702529245E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B77" s="30">
+        <v>18</v>
+      </c>
+      <c r="C77" s="30">
+        <v>5.1950065340132117</v>
+      </c>
+      <c r="D77" s="30">
+        <v>0.10499346598678816</v>
+      </c>
+      <c r="S77" s="30">
+        <v>20</v>
+      </c>
+      <c r="T77" s="30">
+        <v>5.4564310872767017</v>
+      </c>
+      <c r="U77" s="30">
+        <v>-5.6431087276701319E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="30">
+        <v>19</v>
+      </c>
+      <c r="C78" s="30">
+        <v>5.4275083192685667</v>
+      </c>
+      <c r="D78" s="30">
+        <v>-2.7508319268566339E-2</v>
+      </c>
+      <c r="S78" s="31">
+        <v>21</v>
+      </c>
+      <c r="T78" s="31">
+        <v>5.4693315527114184</v>
+      </c>
+      <c r="U78" s="31">
+        <v>-6.9331552711417999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B79" s="30">
+        <v>20</v>
+      </c>
+      <c r="C79" s="30">
+        <v>5.3723247775834517</v>
+      </c>
+      <c r="D79" s="30">
+        <v>2.7675222416548628E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="31">
+        <v>21</v>
+      </c>
+      <c r="C80" s="31">
+        <v>5.5235456873827253</v>
+      </c>
+      <c r="D80" s="31">
+        <v>-0.12354568738272498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>